--- a/fuentes/contenidos/grado08/guion05/Solicitud_Grafica_LE_08_05_REC90.xlsx
+++ b/fuentes/contenidos/grado08/guion05/Solicitud_Grafica_LE_08_05_REC90.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="203">
   <si>
     <t>Fecha:</t>
   </si>
@@ -610,48 +610,12 @@
     <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=000JWM01&amp;ruta=Buscador</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/blaavirtual/periodismo/carrod/carrod0d.htm</t>
-  </si>
-  <si>
-    <t>Tertulia con Carlos Restrepo, 29 de abril de 1950.</t>
-  </si>
-  <si>
-    <t>http://www.banrepcultural.org/coleccion-de-arte-banco-de-la-republica/tema/surrealismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvador Dalí. Busto retrospectivo de mujer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joan Miró. El disco rojo persiguiendo a la alondra (Le disque rouge à la poursuite de l'alouette). </t>
-  </si>
-  <si>
     <t>SHUTTER: 136363649</t>
   </si>
   <si>
-    <t>http://www.banrepcultural.org/blaavirtual/todaslasartes/rusos/obras.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edvard Munch. El grito, 1893. </t>
-  </si>
-  <si>
-    <t>http://www.banrepcultural.org/evento/club-de-poesia-feb21</t>
-  </si>
-  <si>
-    <t>Vicente Huidobro</t>
-  </si>
-  <si>
-    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=13&amp;idpil=AU000697&amp;ruta=Buscador</t>
-  </si>
-  <si>
     <t>Jorge Luis Borges</t>
   </si>
   <si>
-    <t>SHUTTER: 77819173</t>
-  </si>
-  <si>
-    <t>http://www.banrepcultural.org/bogot/biblioteca-luis-ngel-arango/sala-de-audiovisuales/auditorio/evento/acci-n-cultural-popular-y-e</t>
-  </si>
-  <si>
     <t>Fotografía</t>
   </si>
   <si>
@@ -659,6 +623,24 @@
   </si>
   <si>
     <t>Umberto Boccioni Estudio para La ciudad crece, 1910 (Pinacoteca de Brera, Milán, Italia)</t>
+  </si>
+  <si>
+    <t>La foto de la ventaja de un Aula y el Maestro</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/theworld/biographies/seccions/cards2/default.asp?art=46&amp;pk=1064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a surreal digital painting of a room decorated to look like a human face.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan Miro sculpture of bird in the parc Joan Miro Barcelona Spain </t>
+  </si>
+  <si>
+    <t>Smoking Pipe: isolated on background. (for vector see image 93047881)</t>
+  </si>
+  <si>
+    <t>Vntage radio device over a white background</t>
   </si>
 </sst>
 </file>
@@ -668,7 +650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -718,12 +700,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -1429,8 +1405,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1448,7 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1469,44 +1445,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,19 +1503,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1566,10 +1542,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1581,24 +1553,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,15 +1582,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,22 +1623,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1692,10 +1668,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1820,66 +1796,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>965957</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>174400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1455982</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="http://www.banrepcultural.org/sites/default/files/lablaa/todaslasartes/rusos/images/edvamunc.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17292612" y="7298027"/>
-          <a:ext cx="490025" cy="684191"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2594,9 +2510,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2678,7 +2594,7 @@
       </c>
       <c r="D3" s="88"/>
       <c r="F3" s="80">
-        <v>42394</v>
+        <v>42404</v>
       </c>
       <c r="G3" s="81"/>
       <c r="H3" s="58"/>
@@ -2793,7 +2709,7 @@
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -2897,7 +2813,7 @@
         <v>Recurso F7</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>150</v>
@@ -2920,7 +2836,7 @@
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="64" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -2929,7 +2845,7 @@
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
-        <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
+        <f t="shared" ref="A11:A13" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -2940,7 +2856,7 @@
         <v>Recurso F7</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>150</v>
@@ -2963,33 +2879,33 @@
       </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B12&lt;&gt;"",K12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>192</v>
+      <c r="B12" s="62">
+        <v>248476</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B12&lt;&gt;"",K12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>150</v>
       </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B12&lt;&gt;"",K12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
@@ -2997,17 +2913,17 @@
         <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",K12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I12" s="13" t="str">
-        <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="64"/>
+        <f ca="1">IF(OR($B12&lt;&gt;"",$K12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="77"/>
+      <c r="K12" s="64" t="s">
+        <v>197</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
@@ -3026,7 +2942,7 @@
         <v>Recurso F7</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>155</v>
@@ -3049,33 +2965,33 @@
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B14&lt;&gt;"",K14&lt;&gt;""),CONCATENATE(LEFT(A13,3),IF(MID(A13,4,2)+1&lt;10,CONCATENATE("0",MID(A13,4,2)+1))),"")</f>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="62">
+        <v>71686642</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>IF(OR(B14&lt;&gt;"",K14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D14" s="63" t="s">
         <v>194</v>
-      </c>
-      <c r="C14" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Recurso F7</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>206</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B14&lt;&gt;"",K14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I14="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
@@ -3083,42 +2999,42 @@
         <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I14&lt;&gt;"",I14&lt;&gt;0),IF(OR(B14&lt;&gt;"",K14&lt;&gt;""),CONCATENATE($C$7,"_",$A14,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_08_05_REC90_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
-        <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <f ca="1">IF(OR($B14&lt;&gt;"",$K14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J14" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="K14" s="64"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B15&lt;&gt;"",K15&lt;&gt;""),CONCATENATE(LEFT(A14,3),IF(MID(A14,4,2)+1&lt;10,CONCATENATE("0",MID(A14,4,2)+1))),"")</f>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="62">
+        <v>9741229</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f>IF(OR(B15&lt;&gt;"",K15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso F7</v>
+      </c>
+      <c r="D15" s="63" t="s">
         <v>194</v>
-      </c>
-      <c r="C15" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Recurso F7</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>206</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B15&lt;&gt;"",K15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
@@ -3126,42 +3042,42 @@
         <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I15&lt;&gt;"",I15&lt;&gt;0),IF(OR(B15&lt;&gt;"",K15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_08_05_REC90_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
-        <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <f ca="1">IF(OR($B15&lt;&gt;"",$K15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J15" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="66"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="66" t="s">
+        <v>200</v>
+      </c>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B16&lt;&gt;"",K16&lt;&gt;""),CONCATENATE(LEFT(A15,3),IF(MID(A15,4,2)+1&lt;10,CONCATENATE("0",MID(A15,4,2)+1))),"")</f>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B16&lt;&gt;"",K16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B16&lt;&gt;"",K16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I16="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
@@ -3169,40 +3085,42 @@
         <v>320 x 480 px</v>
       </c>
       <c r="H16" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I16&lt;&gt;"",I16&lt;&gt;0),IF(OR(B16&lt;&gt;"",K16&lt;&gt;""),CONCATENATE($C$7,"_",$A16,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_08_05_REC90_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
-        <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <f ca="1">IF(OR($B16&lt;&gt;"",$K16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE(LEFT(A16,3),IF(MID(A16,4,2)+1&lt;10,CONCATENATE("0",MID(A16,4,2)+1))),"")</f>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I17="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
@@ -3210,42 +3128,42 @@
         <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I17&lt;&gt;"",I17&lt;&gt;0),IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),CONCATENATE($C$7,"_",$A17,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_08_05_REC90_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J17" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66" t="s">
+        <v>196</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE(LEFT(A17,3),IF(MID(A17,4,2)+1&lt;10,CONCATENATE("0",MID(A17,4,2)+1))),"")</f>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
@@ -3253,7 +3171,7 @@
         <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I18&lt;&gt;"",I18&lt;&gt;0),IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_08_05_REC90_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
@@ -3261,32 +3179,34 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J18"/>
-      <c r="K18" s="66"/>
+      <c r="K18" s="66" t="s">
+        <v>193</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
-        <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
+        <f>IF(OR(B19&lt;&gt;"",K19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>200</v>
+      <c r="B19" s="62">
+        <v>77819173</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B19&lt;&gt;"",K19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>155</v>
       </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(OR(B19&lt;&gt;"",K19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>LE_08_05_REC90_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
@@ -3294,60 +3214,52 @@
         <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",K19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>LE_08_05_REC90_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
-        <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <f ca="1">IF(OR($B19&lt;&gt;"",$K19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
-      <c r="J19" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="K19" s="68"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="67" t="s">
+        <v>202</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG11</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>202</v>
-      </c>
+        <f>IF(OR(B20&lt;&gt;"",K20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="62"/>
       <c r="C20" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Recurso F7</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>155</v>
-      </c>
+        <f>IF(OR(B20&lt;&gt;"",K20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_05_REC90_IMG11n.jpg</v>
+        <f>IF(OR(B20&lt;&gt;"",K20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I20="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>LE_08_05_REC90_IMG11a.jpg</v>
+        <f ca="1">IF(AND(I20&lt;&gt;"",I20&lt;&gt;0),IF(OR(B20&lt;&gt;"",K20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I20" s="13" t="str">
-        <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" s="66"/>
+        <f ca="1">IF(OR($B20&lt;&gt;"",$K20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="77"/>
+      <c r="K20" s="64"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
@@ -3355,37 +3267,31 @@
     </row>
     <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG12</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>204</v>
-      </c>
+        <f t="shared" ref="A21:A50" si="6">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(LEFT(A20,3),IF(MID(A20,4,2)+1&lt;10,CONCATENATE("0",MID(A20,4,2)+1),MID(A20,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="62"/>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F7</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_05_REC90_IMG12n.jpg</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_05_REC90_IMG12a.jpg</v>
+        <v/>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
+        <v/>
       </c>
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
@@ -3394,84 +3300,70 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG13</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>205</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B22" s="62"/>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F7</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_05_REC90_IMG13n.jpg</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_05_REC90_IMG13a.jpg</v>
+        <v/>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
+        <v/>
       </c>
       <c r="J22" s="63"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="68"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG14</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>192</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F7</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>LE_08_05_REC90_IMG14n.jpg</v>
+        <f t="shared" si="4"/>
+        <v/>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>320 x 480 px</v>
+        <v/>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>LE_08_05_REC90_IMG14a.jpg</v>
+        <v/>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 458 px</v>
-      </c>
-      <c r="J23" s="64" t="s">
-        <v>193</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J23" s="64"/>
       <c r="K23" s="64"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
@@ -3917,7 +3809,7 @@
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="70"/>
+      <c r="J37" s="69"/>
       <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3948,7 +3840,7 @@
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="71"/>
+      <c r="J38" s="70"/>
       <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6163,7 +6055,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7216,7 +7107,7 @@
       <c r="B12" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -7290,29 +7181,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
+      <c r="G15" s="74"/>
+      <c r="H15" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="75"/>
-      <c r="J15" s="77" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="76" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7467,7 +7358,7 @@
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -7544,7 +7435,7 @@
         <v>176</v>
       </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="72"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
